--- a/docs/Results.xlsx
+++ b/docs/Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="169" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="169" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
   <si>
     <t>N=1</t>
   </si>
@@ -36,6 +36,9 @@
   <si>
     <t>N=3</t>
   </si>
+  <si>
+    <t>Cycles</t>
+  </si>
 </sst>
 </file>
 
@@ -44,7 +47,7 @@
   <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -69,12 +72,24 @@
     <font>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="true"/>
       <sz val="13"/>
     </font>
     <font>
       <name val="Arial"/>
       <family val="2"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="true"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <sz val="13"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -198,7 +213,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -213,7 +228,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr b="1" sz="1300"/>
               <a:t>Runtimes of the Ackerman Function</a:t>
             </a:r>
           </a:p>
@@ -492,11 +507,417 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="35698923"/>
-        <c:axId val="89852479"/>
+        <c:axId val="30797436"/>
+        <c:axId val="57342758"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="35698923"/>
+        <c:axId val="30797436"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900"/>
+                  <a:t>M</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="57342758"/>
+        <c:crossesAt val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="57342758"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:logBase val="10"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900"/>
+                  <a:t>musec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="30797436"/>
+        <c:crossesAt val="1"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300"/>
+              <a:t>Allocate/Free Cycles for Various (M,N)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N=1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$3:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N=2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$3:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$11:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>189</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N=3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$3:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$20:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10307</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42438</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>172233</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>693964</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2785999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="47230382"/>
+        <c:axId val="96716885"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="47230382"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -522,8 +943,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89852479"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="96716885"/>
+        <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -536,7 +957,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89852479"/>
+        <c:axId val="96716885"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:logBase val="10"/>
@@ -553,7 +974,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr sz="900"/>
-                  <a:t>musec</a:t>
+                  <a:t>Allocate/Free Cycles</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -572,8 +993,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35698923"/>
-        <c:crossesAt val="1"/>
+        <c:crossAx val="47230382"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -609,15 +1030,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>115200</xdr:colOff>
+      <xdr:colOff>142200</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>55440</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>718560</xdr:colOff>
+      <xdr:colOff>745200</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -625,8 +1046,43 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5014800" y="516240"/>
-        <a:ext cx="5502960" cy="3238560"/>
+        <a:off x="5068440" y="507240"/>
+        <a:ext cx="5529240" cy="3238200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79560</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>130680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>672840</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>68760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5826600" y="898920"/>
+        <a:ext cx="5519880" cy="3165120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -646,12 +1102,12 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="K28" activeCellId="0" pane="topLeft" sqref="K28"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -990,7 +1446,7 @@
         <v>80171</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="25">
       <c r="A25" s="0" t="n">
         <v>3</v>
       </c>
@@ -1004,7 +1460,7 @@
         <v>324653</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="0" t="n">
         <v>3</v>
       </c>
@@ -1022,7 +1478,7 @@
         <v>375748</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="27">
       <c r="A27" s="0" t="n">
         <v>3</v>
       </c>
@@ -1040,7 +1496,7 @@
         <v>365517</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="29">
       <c r="C29" s="0" t="n">
         <v>1</v>
       </c>
@@ -1048,7 +1504,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="C30" s="0" t="n">
         <f aca="false">2^31</f>
         <v>2147483648</v>
@@ -1071,16 +1527,308 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="P11" activeCellId="0" pane="topLeft" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6941176470588"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+      <c r="A3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+      <c r="A5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+      <c r="A6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+      <c r="A7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+      <c r="A8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+      <c r="A9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+      <c r="A10" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+      <c r="A11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+      <c r="A12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+      <c r="A13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+      <c r="A14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+      <c r="A15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+      <c r="A16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+      <c r="A17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+      <c r="A18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+      <c r="A19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
+      <c r="A20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
+      <c r="A21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>541</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
+      <c r="A22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>2432</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
+      <c r="A23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>10307</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
+      <c r="A24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>42438</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
+      <c r="A25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>172233</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
+      <c r="A26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>693964</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
+      <c r="A27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>2785999</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
@@ -1088,6 +1836,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1103,7 +1852,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
